--- a/AdminBookStoreApp/files/importingbooks.xlsx
+++ b/AdminBookStoreApp/files/importingbooks.xlsx
@@ -24,33 +24,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>First movie</t>
-  </si>
-  <si>
-    <t>https://buffer.com/cdn-cgi/image/w=1000,fit=contain,q=90,f=auto/library/content/images/size/w300/2023/10/free-images.jpg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>TRI</t>
   </si>
   <si>
-    <t>Merry</t>
-  </si>
-  <si>
-    <t>Filips</t>
-  </si>
-  <si>
-    <t>Second movie</t>
-  </si>
-  <si>
-    <t>FPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lola </t>
-  </si>
-  <si>
-    <t>Andrews</t>
+    <t>Therapy</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Fitzek</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/0/02/Therapy_%28Fitzek_novel%29_book_cover.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The Package</t>
+  </si>
+  <si>
+    <t>https://www.krimi-couch.de/fileadmin/_processed_/9/3/csm_3426199203_a657ffc450.jpg</t>
+  </si>
+  <si>
+    <t>Playlist</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRXS-yuUiiANn9_ug6RbxH5Hz_zuZiacSF-fRv-pnI-c2_l2wT3</t>
+  </si>
+  <si>
+    <t>It Ends With Us</t>
+  </si>
+  <si>
+    <t>It Starts With Us</t>
+  </si>
+  <si>
+    <t>Ugly Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic books </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colleen </t>
+  </si>
+  <si>
+    <t>Hoover</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTkIlD4PyaF81prNXNOQzpcEaC8Di_0OG1Cl0ob_4aIfSc4MBAe</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQmmFK71PJk_xmgKFZ-DlWnZtzp83pvYX9x47wSErTqjuNxddExxVv-PsKRB4ciN7G3XUY&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn2.gstatic.com/images?q=tbn:ANd9GcT043HMMNY3CyT4ikGISDVDEgnCdv5QbDxhigHw9y5UbEzb1GzI</t>
   </si>
 </sst>
 </file>
@@ -97,10 +125,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -382,61 +413,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1">
         <v>45</v>
       </c>
       <c r="D1" s="1">
-        <v>45477.587500000001</v>
+        <v>38902.587500000001</v>
       </c>
       <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>55</v>
       </c>
       <c r="D2" s="1">
-        <v>45477.587500000001</v>
+        <v>42555.587500000001</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44381.587500000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42586.629166666666</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41916.54583333333</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44596.587500000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -445,5 +568,6 @@
     <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>